--- a/biology/Botanique/Kordes/Kordes.xlsx
+++ b/biology/Botanique/Kordes/Kordes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Kordes, ou plus exactement W. Kordes' Söhne, est une entreprise familiale allemande de réputation internationale, spécialisée dans la culture de rosiers et l'obtention de nouveaux cultivars. Elle est située dans la commune de Klein Offenseth-Sparrieshoop qui fait partie de l'arrondissement de Pinneberg dans l'État du Schleswig-Holstein. Elle vend plus de deux millions de plants de roses par an et possède 150 succursales.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La société a été fondée par Wilhelm Kordes (1865-1935), le 1er octobre 1887, à Elmshorn et se spécialise rapidement dans la culture de rosiers en s'installant à Klein Offenseth-Sparrieshoop. Ses cultivars sont robustes et puissants. Il croise des rosiers de Wichura et des rosiers du Japon de la famille des rugosa qui sont à l'origine des rosa kordesii, supportant le climat froid de l'Allemagne du Nord, comme plus tard la rose 'Heidelberg' ou la rose 'Dortmund'.
 Wilhelm Kordes II (1891-1976) et son frère Hermann renomment la maison Kordes en « Wilhelm Kordes' Söhne » et lui donnent un rayonnement international. Des roses comme 'Crimson Glory' (1935) ou 'Fée des neiges' (1958) sont mondialement connues au XXe siècle. Wilhelm Kordes II s'engage aussi dans la Annerkannte Deutsche Rose, fondée dans les années 1950, qui distingue les roses allemandes. Reimer Kordes prend la succession de la maison en 1955 (c'est lui qui lance la fameuse rose rouge 'Lili Marleen' en 1959) et son fils Wilhelm Kordes III en 1977, avec Bernd Helms-Kordes et Tim Kordes.
@@ -544,7 +558,9 @@
           <t>Roses Kordes les plus connues</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>'Alchymist', rosier-buisson, abricot (1956)
 'Angela', rosier-buisson, carmin (1984)
